--- a/biology/Botanique/Geranium_tuberosum/Geranium_tuberosum.xlsx
+++ b/biology/Botanique/Geranium_tuberosum/Geranium_tuberosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium tuberosum
 Le géranium tubéreux (Geranium tuberosum), tuberous Crane's-bill en anglais, est une plante de la famille des Géraniacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace herbacée de 20 à 40 cm de haut à feuilles polygonales.
 </t>
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Les fleurs assez grandes, en corymbes sont de couleur rouge violacé.
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les fleurs assez grandes, en corymbes sont de couleur rouge violacé.
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
 Pollinisation : entomogame, autogame
 Fruit : capsule.
-Dissémination : épizoochore
-Habitat et répartition
-C'est une plante des champs et des prairies en Europe méditerranéenne, Asie occidentale et Afrique méridionale.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geranium_tuberosum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geranium_tuberosum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante des champs et des prairies en Europe méditerranéenne, Asie occidentale et Afrique méridionale.
 L'inventaire national du patrimoine naturel ne le retrouve que dans cinq départements : elle est présente dans la Vienne (et sur la liste des espèces protégées en Poitou-Charentes), et sur le pourtour méditerranéen, dans les Alpes-Maritimes, le Var, les Bouches-du-Rhône et l'Hérault.
 </t>
         </is>
